--- a/outputs-HGR-r202/g__Enterococcus_A.xlsx
+++ b/outputs-HGR-r202/g__Enterococcus_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,6 +587,930 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3548.fa</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9923445671442286</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.007655432855771413</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9923445671442286</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43446.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9993761005231298</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0006238994768701966</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9993761005231298</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43463.fa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9968519834185069</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.003148016581493154</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9968519834185069</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43483.fa</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9989431140606483</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001056885939351769</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9989431140606483</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT46441.fa</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9984380129444725</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.001561987055527449</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9984380129444725</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT46962.fa</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9990029408723826</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0009970591276173629</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9990029408723826</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT47531.fa</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9986717337417857</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.001328266258214247</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9986717337417857</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48673.fa</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9961179671900751</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.003882032809924968</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9961179671900751</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48686.fa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9971585667150166</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.002841433284983458</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9971585667150166</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48704.fa</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9967293507006039</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.003270649299396146</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9967293507006039</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48723.fa</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9990889172243409</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0009110827756591039</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9990889172243409</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48749.fa</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9986977918568414</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.001302208143158573</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9986977918568414</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48761.fa</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9992930689715702</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0007069310284297932</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9992930689715702</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48798.fa</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.998375279728413</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.001624720271587031</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.998375279728413</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48894.fa</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9975668224588882</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.002433177541111869</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9975668224588882</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49063.fa</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9994469324648407</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0005530675351592206</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9994469324648407</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49069.fa</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9990518890811071</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0009481109188929176</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9990518890811071</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49118.fa</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9992527076778087</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0007472923221913357</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9992527076778087</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49176.fa</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9986905455525821</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.001309454447417905</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9986905455525821</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49226.fa</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9982918158643099</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.001708184135690062</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9982918158643099</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49326.fa</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9963437523287633</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.003656247671236726</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9963437523287633</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49356.fa</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9982125006232996</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.001787499376700389</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9982125006232996</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49393.fa</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9979151147611988</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.002084885238801283</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9979151147611988</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49409.fa</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.99950191863764</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0004980813623600023</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.99950191863764</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49458.fa</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9980946748078275</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.001905325192172446</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9980946748078275</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49499.fa</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9922266241183442</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.007773375881655846</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9922266241183442</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49512.fa</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.999132921283846</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0008670787161539673</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.999132921283846</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49574.fa</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.9989019503440513</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.00109804965594876</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.9989019503440513</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49593.fa</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.9987435816796829</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.001256418320317096</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9987435816796829</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49599.fa</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9974604330383547</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.002539566961645308</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9974604330383547</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT49616.fa</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.9985998533675918</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.001400146632408194</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9985998533675918</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57264.fa</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.9984297350002284</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.001570264999771625</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9984297350002284</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57442.fa</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.9982776702079896</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.00172232979201036</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.9982776702079896</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61880.fa</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9929576398096529</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.007042360190347072</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9929576398096529</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT68043.fa</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9985755450609143</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.001424454939085719</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.9985755450609143</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT68629.fa</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.999560388267558</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0004396117324419748</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.999560388267558</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7121.fa</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.9993628876693171</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.0006371123306828789</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.9993628876693171</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7125.fa</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.9993656642760387</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.0006343357239613187</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.9993656642760387</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7214.fa</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.9988716683539759</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.00112833164602407</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.9988716683539759</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91303.fa</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.9980879032315418</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.00191209676845817</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.9980879032315418</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91470.fa</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9986208971372122</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.0013791028627877</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.9986208971372122</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91943.fa</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.999469665715665</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0005303342843349763</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.999469665715665</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT940.fa</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.9984886372118615</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.001511362788138513</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.9984886372118615</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT984.fa</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.9974353257412809</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.002564674258719123</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.9974353257412809</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>s__Enterococcus_A gilvus</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
